--- a/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
+++ b/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Expedición Pacífico\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A79CD1A-1EE7-48A2-9687-8BC92349B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657C969-1354-4F31-9A80-1AA159E0F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_Total" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
     <sheet name="Data_Ictio" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja4!$I$1:$N$37</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="190">
   <si>
     <t>Especie</t>
   </si>
@@ -608,13 +609,16 @@
   </si>
   <si>
     <t>NO_ID</t>
+  </si>
+  <si>
+    <t>Volumen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +645,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -684,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -702,6 +713,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0168CD7B-7657-4DD9-B908-67C5D979FDF9}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView topLeftCell="U2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:AK37"/>
     </sheetView>
   </sheetViews>
@@ -8242,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFBAA8D-A117-4009-9F5D-990A10703D50}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12339,4 +12353,5461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D537321A-4904-4F8F-B4C5-C06EAB7D4B49}">
+  <dimension ref="A1:AL37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3.0551044005544004</v>
+      </c>
+      <c r="D2" s="14">
+        <f>(Data_Ictio!C2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <f>(Data_Ictio!D2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <f>(Data_Ictio!E2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <f>(Data_Ictio!F2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <f>(Data_Ictio!G2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <f>(Data_Ictio!H2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <f>(Data_Ictio!I2/Hoja2!$C2)*1000</f>
+        <v>1636.6052823244488</v>
+      </c>
+      <c r="K2" s="14">
+        <f>(Data_Ictio!J2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <f>(Data_Ictio!K2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <f>(Data_Ictio!L2/Hoja2!$C2)*1000</f>
+        <v>327.32105646488975</v>
+      </c>
+      <c r="N2" s="14">
+        <f>(Data_Ictio!M2/Hoja2!$C2)*1000</f>
+        <v>36659.958324067651</v>
+      </c>
+      <c r="O2" s="14">
+        <f>(Data_Ictio!N2/Hoja2!$C2)*1000</f>
+        <v>327.32105646488975</v>
+      </c>
+      <c r="P2" s="14">
+        <f>(Data_Ictio!O2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <f>(Data_Ictio!P2/Hoja2!$C2)*1000</f>
+        <v>327.32105646488975</v>
+      </c>
+      <c r="R2" s="14">
+        <f>(Data_Ictio!Q2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <f>(Data_Ictio!R2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <f>(Data_Ictio!S2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <f>(Data_Ictio!T2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <f>(Data_Ictio!U2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <f>(Data_Ictio!V2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <f>(Data_Ictio!W2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="14">
+        <f>(Data_Ictio!X2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="14">
+        <f>(Data_Ictio!Y2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <f>(Data_Ictio!Z2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <f>(Data_Ictio!AA2/Hoja2!$C2)*1000</f>
+        <v>654.6421129297795</v>
+      </c>
+      <c r="AC2" s="14">
+        <f>(Data_Ictio!AB2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <f>(Data_Ictio!AC2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14">
+        <f>(Data_Ictio!AD2/Hoja2!$C2)*1000</f>
+        <v>654.6421129297795</v>
+      </c>
+      <c r="AF2" s="14">
+        <f>(Data_Ictio!AE2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <f>(Data_Ictio!AF2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="14">
+        <f>(Data_Ictio!AG2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <f>(Data_Ictio!AH2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <f>(Data_Ictio!AI2/Hoja2!$C2)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <f>(Data_Ictio!AJ2/Hoja2!$C2)*1000</f>
+        <v>327.32105646488975</v>
+      </c>
+      <c r="AL2" s="14"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3.5141615384615386</v>
+      </c>
+      <c r="D3" s="14">
+        <f>(Data_Ictio!C3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <f>(Data_Ictio!D3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(Data_Ictio!E3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <f>(Data_Ictio!F3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <f>(Data_Ictio!G3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <f>(Data_Ictio!H3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>(Data_Ictio!I3/Hoja2!$C3)*1000</f>
+        <v>284.56290044019687</v>
+      </c>
+      <c r="K3" s="14">
+        <f>(Data_Ictio!J3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <f>(Data_Ictio!K3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <f>(Data_Ictio!L3/Hoja2!$C3)*1000</f>
+        <v>853.68870132059067</v>
+      </c>
+      <c r="N3" s="14">
+        <f>(Data_Ictio!M3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <f>(Data_Ictio!N3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <f>(Data_Ictio!O3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <f>(Data_Ictio!P3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <f>(Data_Ictio!Q3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="14">
+        <f>(Data_Ictio!R3/Hoja2!$C3)*1000</f>
+        <v>284.56290044019687</v>
+      </c>
+      <c r="T3" s="14">
+        <f>(Data_Ictio!S3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <f>(Data_Ictio!T3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <f>(Data_Ictio!U3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <f>(Data_Ictio!V3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <f>(Data_Ictio!W3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>(Data_Ictio!X3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <f>(Data_Ictio!Y3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <f>(Data_Ictio!Z3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <f>(Data_Ictio!AA3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <f>(Data_Ictio!AB3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <f>(Data_Ictio!AC3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <f>(Data_Ictio!AD3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="14">
+        <f>(Data_Ictio!AE3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <f>(Data_Ictio!AF3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="14">
+        <f>(Data_Ictio!AG3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <f>(Data_Ictio!AH3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <f>(Data_Ictio!AI3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <f>(Data_Ictio!AJ3/Hoja2!$C3)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13">
+        <v>3.9626656387156385</v>
+      </c>
+      <c r="D4" s="14">
+        <f>(Data_Ictio!C4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <f>(Data_Ictio!D4/Hoja2!$C4)*1000</f>
+        <v>252.35538174856347</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(Data_Ictio!E4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>(Data_Ictio!F4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f>(Data_Ictio!G4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>(Data_Ictio!H4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <f>(Data_Ictio!I4/Hoja2!$C4)*1000</f>
+        <v>1009.4215269942539</v>
+      </c>
+      <c r="K4" s="14">
+        <f>(Data_Ictio!J4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <f>(Data_Ictio!K4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <f>(Data_Ictio!L4/Hoja2!$C4)*1000</f>
+        <v>252.35538174856347</v>
+      </c>
+      <c r="N4" s="14">
+        <f>(Data_Ictio!M4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <f>(Data_Ictio!N4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <f>(Data_Ictio!O4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <f>(Data_Ictio!P4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <f>(Data_Ictio!Q4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
+        <f>(Data_Ictio!R4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <f>(Data_Ictio!S4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <f>(Data_Ictio!T4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <f>(Data_Ictio!U4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <f>(Data_Ictio!V4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <f>(Data_Ictio!W4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <f>(Data_Ictio!X4/Hoja2!$C4)*1000</f>
+        <v>252.35538174856347</v>
+      </c>
+      <c r="Z4" s="14">
+        <f>(Data_Ictio!Y4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <f>(Data_Ictio!Z4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <f>(Data_Ictio!AA4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <f>(Data_Ictio!AB4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <f>(Data_Ictio!AC4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="14">
+        <f>(Data_Ictio!AD4/Hoja2!$C4)*1000</f>
+        <v>252.35538174856347</v>
+      </c>
+      <c r="AF4" s="14">
+        <f>(Data_Ictio!AE4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <f>(Data_Ictio!AF4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="14">
+        <f>(Data_Ictio!AG4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <f>(Data_Ictio!AH4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <f>(Data_Ictio!AI4/Hoja2!$C4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <f>(Data_Ictio!AJ4/Hoja2!$C4)*1000</f>
+        <v>3532.9753444798885</v>
+      </c>
+      <c r="AL4" s="14"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.2001089859089857</v>
+      </c>
+      <c r="D5" s="14">
+        <f>(Data_Ictio!C5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <f>(Data_Ictio!D5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(Data_Ictio!E5/Hoja2!$C5)*1000</f>
+        <v>714.26717974813243</v>
+      </c>
+      <c r="G5" s="14">
+        <f>(Data_Ictio!F5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <f>(Data_Ictio!G5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <f>(Data_Ictio!H5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <f>(Data_Ictio!I5/Hoja2!$C5)*1000</f>
+        <v>4285.6030784887953</v>
+      </c>
+      <c r="K5" s="14">
+        <f>(Data_Ictio!J5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <f>(Data_Ictio!K5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <f>(Data_Ictio!L5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <f>(Data_Ictio!M5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <f>(Data_Ictio!N5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <f>(Data_Ictio!O5/Hoja2!$C5)*1000</f>
+        <v>238.08905991604416</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>(Data_Ictio!P5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <f>(Data_Ictio!Q5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <f>(Data_Ictio!R5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <f>(Data_Ictio!S5/Hoja2!$C5)*1000</f>
+        <v>238.08905991604416</v>
+      </c>
+      <c r="U5" s="14">
+        <f>(Data_Ictio!T5/Hoja2!$C5)*1000</f>
+        <v>238.08905991604416</v>
+      </c>
+      <c r="V5" s="14">
+        <f>(Data_Ictio!U5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <f>(Data_Ictio!V5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <f>(Data_Ictio!W5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>(Data_Ictio!X5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>(Data_Ictio!Y5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>(Data_Ictio!Z5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>(Data_Ictio!AA5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>(Data_Ictio!AB5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>(Data_Ictio!AC5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>(Data_Ictio!AD5/Hoja2!$C5)*1000</f>
+        <v>714.26717974813243</v>
+      </c>
+      <c r="AF5" s="14">
+        <f>(Data_Ictio!AE5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <f>(Data_Ictio!AF5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <f>(Data_Ictio!AG5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <f>(Data_Ictio!AH5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <f>(Data_Ictio!AI5/Hoja2!$C5)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <f>(Data_Ictio!AJ5/Hoja2!$C5)*1000</f>
+        <v>476.17811983208833</v>
+      </c>
+      <c r="AL5" s="14"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6.0574436128436133</v>
+      </c>
+      <c r="D6" s="14">
+        <f>(Data_Ictio!C6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <f>(Data_Ictio!D6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(Data_Ictio!E6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <f>(Data_Ictio!F6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <f>(Data_Ictio!G6/Hoja2!$C6)*1000</f>
+        <v>825.43071294935169</v>
+      </c>
+      <c r="I6" s="14">
+        <f>(Data_Ictio!H6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>(Data_Ictio!I6/Hoja2!$C6)*1000</f>
+        <v>8584.4794146732584</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(Data_Ictio!J6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <f>(Data_Ictio!K6/Hoja2!$C6)*1000</f>
+        <v>165.08614258987032</v>
+      </c>
+      <c r="M6" s="14">
+        <f>(Data_Ictio!L6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <f>(Data_Ictio!M6/Hoja2!$C6)*1000</f>
+        <v>330.17228517974064</v>
+      </c>
+      <c r="O6" s="14">
+        <f>(Data_Ictio!N6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <f>(Data_Ictio!O6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <f>(Data_Ictio!P6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <f>(Data_Ictio!Q6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <f>(Data_Ictio!R6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <f>(Data_Ictio!S6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <f>(Data_Ictio!T6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <f>(Data_Ictio!U6/Hoja2!$C6)*1000</f>
+        <v>990.51685553922198</v>
+      </c>
+      <c r="W6" s="14">
+        <f>(Data_Ictio!V6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <f>(Data_Ictio!W6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14">
+        <f>(Data_Ictio!X6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <f>(Data_Ictio!Y6/Hoja2!$C6)*1000</f>
+        <v>165.08614258987032</v>
+      </c>
+      <c r="AA6" s="14">
+        <f>(Data_Ictio!Z6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <f>(Data_Ictio!AA6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <f>(Data_Ictio!AB6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <f>(Data_Ictio!AC6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <f>(Data_Ictio!AD6/Hoja2!$C6)*1000</f>
+        <v>660.34457035948128</v>
+      </c>
+      <c r="AF6" s="14">
+        <f>(Data_Ictio!AE6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <f>(Data_Ictio!AF6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <f>(Data_Ictio!AG6/Hoja2!$C6)*1000</f>
+        <v>330.17228517974064</v>
+      </c>
+      <c r="AI6" s="14">
+        <f>(Data_Ictio!AH6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="14">
+        <f>(Data_Ictio!AI6/Hoja2!$C6)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="14">
+        <f>(Data_Ictio!AJ6/Hoja2!$C6)*1000</f>
+        <v>1155.6029981290924</v>
+      </c>
+      <c r="AL6" s="14"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6.2526748094248088</v>
+      </c>
+      <c r="D7" s="14">
+        <f>(Data_Ictio!C7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <f>(Data_Ictio!D7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f>(Data_Ictio!E7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f>(Data_Ictio!F7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <f>(Data_Ictio!G7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>(Data_Ictio!H7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>(Data_Ictio!I7/Hoja2!$C7)*1000</f>
+        <v>24789.390896575133</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(Data_Ictio!J7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <f>(Data_Ictio!K7/Hoja2!$C7)*1000</f>
+        <v>159.93155417145246</v>
+      </c>
+      <c r="M7" s="14">
+        <f>(Data_Ictio!L7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <f>(Data_Ictio!M7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <f>(Data_Ictio!N7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <f>(Data_Ictio!O7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <f>(Data_Ictio!P7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <f>(Data_Ictio!Q7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <f>(Data_Ictio!R7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <f>(Data_Ictio!S7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f>(Data_Ictio!T7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <f>(Data_Ictio!U7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <f>(Data_Ictio!V7/Hoja2!$C7)*1000</f>
+        <v>799.65777085726234</v>
+      </c>
+      <c r="X7" s="14">
+        <f>(Data_Ictio!W7/Hoja2!$C7)*1000</f>
+        <v>159.93155417145246</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>(Data_Ictio!X7/Hoja2!$C7)*1000</f>
+        <v>4318.1519626292165</v>
+      </c>
+      <c r="Z7" s="14">
+        <f>(Data_Ictio!Y7/Hoja2!$C7)*1000</f>
+        <v>799.65777085726234</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>(Data_Ictio!Z7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <f>(Data_Ictio!AA7/Hoja2!$C7)*1000</f>
+        <v>319.86310834290492</v>
+      </c>
+      <c r="AC7" s="14">
+        <f>(Data_Ictio!AB7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <f>(Data_Ictio!AC7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="14">
+        <f>(Data_Ictio!AD7/Hoja2!$C7)*1000</f>
+        <v>319.86310834290492</v>
+      </c>
+      <c r="AF7" s="14">
+        <f>(Data_Ictio!AE7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <f>(Data_Ictio!AF7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <f>(Data_Ictio!AG7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <f>(Data_Ictio!AH7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <f>(Data_Ictio!AI7/Hoja2!$C7)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14">
+        <f>(Data_Ictio!AJ7/Hoja2!$C7)*1000</f>
+        <v>1599.3155417145247</v>
+      </c>
+      <c r="AL7" s="14"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6.4479060060060061</v>
+      </c>
+      <c r="D8" s="14">
+        <f>(Data_Ictio!C8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <f>(Data_Ictio!D8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f>(Data_Ictio!E8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <f>(Data_Ictio!F8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <f>(Data_Ictio!G8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f>(Data_Ictio!H8/Hoja2!$C8)*1000</f>
+        <v>310.17821881042738</v>
+      </c>
+      <c r="J8" s="14">
+        <f>(Data_Ictio!I8/Hoja2!$C8)*1000</f>
+        <v>10235.881220744104</v>
+      </c>
+      <c r="K8" s="14">
+        <f>(Data_Ictio!J8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <f>(Data_Ictio!K8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <f>(Data_Ictio!L8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <f>(Data_Ictio!M8/Hoja2!$C8)*1000</f>
+        <v>4032.3168445355559</v>
+      </c>
+      <c r="O8" s="14">
+        <f>(Data_Ictio!N8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f>(Data_Ictio!O8/Hoja2!$C8)*1000</f>
+        <v>2016.158422267778</v>
+      </c>
+      <c r="Q8" s="14">
+        <f>(Data_Ictio!P8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <f>(Data_Ictio!Q8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <f>(Data_Ictio!R8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <f>(Data_Ictio!S8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <f>(Data_Ictio!T8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <f>(Data_Ictio!U8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <f>(Data_Ictio!V8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <f>(Data_Ictio!W8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>(Data_Ictio!X8/Hoja2!$C8)*1000</f>
+        <v>1861.0693128625644</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>(Data_Ictio!Y8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>(Data_Ictio!Z8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>(Data_Ictio!AA8/Hoja2!$C8)*1000</f>
+        <v>155.08910940521369</v>
+      </c>
+      <c r="AC8" s="14">
+        <f>(Data_Ictio!AB8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>(Data_Ictio!AC8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <f>(Data_Ictio!AD8/Hoja2!$C8)*1000</f>
+        <v>1085.623765836496</v>
+      </c>
+      <c r="AF8" s="14">
+        <f>(Data_Ictio!AE8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <f>(Data_Ictio!AF8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <f>(Data_Ictio!AG8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <f>(Data_Ictio!AH8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <f>(Data_Ictio!AI8/Hoja2!$C8)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <f>(Data_Ictio!AJ8/Hoja2!$C8)*1000</f>
+        <v>3411.9604069147017</v>
+      </c>
+      <c r="AL8" s="14"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5.572003880803881</v>
+      </c>
+      <c r="D9" s="14">
+        <f>(Data_Ictio!C9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>(Data_Ictio!D9/Hoja2!$C9)*1000</f>
+        <v>179.46864743671509</v>
+      </c>
+      <c r="F9" s="14">
+        <f>(Data_Ictio!E9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>(Data_Ictio!F9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f>(Data_Ictio!G9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <f>(Data_Ictio!H9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f>(Data_Ictio!I9/Hoja2!$C9)*1000</f>
+        <v>27997.109000127555</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(Data_Ictio!J9/Hoja2!$C9)*1000</f>
+        <v>179.46864743671509</v>
+      </c>
+      <c r="L9" s="14">
+        <f>(Data_Ictio!K9/Hoja2!$C9)*1000</f>
+        <v>358.93729487343018</v>
+      </c>
+      <c r="M9" s="14">
+        <f>(Data_Ictio!L9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <f>(Data_Ictio!M9/Hoja2!$C9)*1000</f>
+        <v>717.87458974686035</v>
+      </c>
+      <c r="O9" s="14">
+        <f>(Data_Ictio!N9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <f>(Data_Ictio!O9/Hoja2!$C9)*1000</f>
+        <v>1076.8118846202906</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>(Data_Ictio!P9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <f>(Data_Ictio!Q9/Hoja2!$C9)*1000</f>
+        <v>1076.8118846202906</v>
+      </c>
+      <c r="S9" s="14">
+        <f>(Data_Ictio!R9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <f>(Data_Ictio!S9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f>(Data_Ictio!T9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <f>(Data_Ictio!U9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <f>(Data_Ictio!V9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <f>(Data_Ictio!W9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>(Data_Ictio!X9/Hoja2!$C9)*1000</f>
+        <v>358.93729487343018</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>(Data_Ictio!Y9/Hoja2!$C9)*1000</f>
+        <v>179.46864743671509</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>(Data_Ictio!Z9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>(Data_Ictio!AA9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>(Data_Ictio!AB9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="14">
+        <f>(Data_Ictio!AC9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="14">
+        <f>(Data_Ictio!AD9/Hoja2!$C9)*1000</f>
+        <v>717.87458974686035</v>
+      </c>
+      <c r="AF9" s="14">
+        <f>(Data_Ictio!AE9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <f>(Data_Ictio!AF9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <f>(Data_Ictio!AG9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <f>(Data_Ictio!AH9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="14">
+        <f>(Data_Ictio!AI9/Hoja2!$C9)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="14">
+        <f>(Data_Ictio!AJ9/Hoja2!$C9)*1000</f>
+        <v>1435.7491794937207</v>
+      </c>
+      <c r="AL9" s="14"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5.5878334372834368</v>
+      </c>
+      <c r="D10" s="14">
+        <f>(Data_Ictio!C10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <f>(Data_Ictio!D10/Hoja2!$C10)*1000</f>
+        <v>357.92047534121093</v>
+      </c>
+      <c r="F10" s="14">
+        <f>(Data_Ictio!E10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f>(Data_Ictio!F10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f>(Data_Ictio!G10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <f>(Data_Ictio!H10/Hoja2!$C10)*1000</f>
+        <v>178.96023767060547</v>
+      </c>
+      <c r="J10" s="14">
+        <f>(Data_Ictio!I10/Hoja2!$C10)*1000</f>
+        <v>4295.0457040945303</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(Data_Ictio!J10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <f>(Data_Ictio!K10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <f>(Data_Ictio!L10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <f>(Data_Ictio!M10/Hoja2!$C10)*1000</f>
+        <v>357.92047534121093</v>
+      </c>
+      <c r="O10" s="14">
+        <f>(Data_Ictio!N10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <f>(Data_Ictio!O10/Hoja2!$C10)*1000</f>
+        <v>2863.3638027296874</v>
+      </c>
+      <c r="Q10" s="14">
+        <f>(Data_Ictio!P10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <f>(Data_Ictio!Q10/Hoja2!$C10)*1000</f>
+        <v>178.96023767060547</v>
+      </c>
+      <c r="S10" s="14">
+        <f>(Data_Ictio!R10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <f>(Data_Ictio!S10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <f>(Data_Ictio!T10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <f>(Data_Ictio!U10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <f>(Data_Ictio!V10/Hoja2!$C10)*1000</f>
+        <v>178.96023767060547</v>
+      </c>
+      <c r="X10" s="14">
+        <f>(Data_Ictio!W10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <f>(Data_Ictio!X10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <f>(Data_Ictio!Y10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <f>(Data_Ictio!Z10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <f>(Data_Ictio!AA10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>(Data_Ictio!AB10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <f>(Data_Ictio!AC10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <f>(Data_Ictio!AD10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="14">
+        <f>(Data_Ictio!AE10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <f>(Data_Ictio!AF10/Hoja2!$C10)*1000</f>
+        <v>178.96023767060547</v>
+      </c>
+      <c r="AH10" s="14">
+        <f>(Data_Ictio!AG10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
+        <f>(Data_Ictio!AH10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="14">
+        <f>(Data_Ictio!AI10/Hoja2!$C10)*1000</f>
+        <v>178.96023767060547</v>
+      </c>
+      <c r="AK10" s="14">
+        <f>(Data_Ictio!AJ10/Hoja2!$C10)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="14"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5.9782958304458296</v>
+      </c>
+      <c r="D11" s="14">
+        <f>(Data_Ictio!C11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <f>(Data_Ictio!D11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f>(Data_Ictio!E11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f>(Data_Ictio!F11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="H11" s="14">
+        <f>(Data_Ictio!G11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <f>(Data_Ictio!H11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <f>(Data_Ictio!I11/Hoja2!$C11)*1000</f>
+        <v>4850.8807229496597</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(Data_Ictio!J11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <f>(Data_Ictio!K11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <f>(Data_Ictio!L11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="N11" s="14">
+        <f>(Data_Ictio!M11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <f>(Data_Ictio!N11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <f>(Data_Ictio!O11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f>(Data_Ictio!P11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <f>(Data_Ictio!Q11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="S11" s="14">
+        <f>(Data_Ictio!R11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <f>(Data_Ictio!S11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f>(Data_Ictio!T11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <f>(Data_Ictio!U11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <f>(Data_Ictio!V11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <f>(Data_Ictio!W11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>(Data_Ictio!X11/Hoja2!$C11)*1000</f>
+        <v>334.5434981344593</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>(Data_Ictio!Y11/Hoja2!$C11)*1000</f>
+        <v>334.5434981344593</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>(Data_Ictio!Z11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>(Data_Ictio!AA11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <f>(Data_Ictio!AB11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>(Data_Ictio!AC11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="14">
+        <f>(Data_Ictio!AD11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="AF11" s="14">
+        <f>(Data_Ictio!AE11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <f>(Data_Ictio!AF11/Hoja2!$C11)*1000</f>
+        <v>167.27174906722965</v>
+      </c>
+      <c r="AH11" s="14">
+        <f>(Data_Ictio!AG11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <f>(Data_Ictio!AH11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="14">
+        <f>(Data_Ictio!AI11/Hoja2!$C11)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="14">
+        <f>(Data_Ictio!AJ11/Hoja2!$C11)*1000</f>
+        <v>1338.1739925378372</v>
+      </c>
+      <c r="AL11" s="14"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3.7199457726957728</v>
+      </c>
+      <c r="D12" s="14">
+        <f>(Data_Ictio!C12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <f>(Data_Ictio!D12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <f>(Data_Ictio!E12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <f>(Data_Ictio!F12/Hoja2!$C12)*1000</f>
+        <v>268.82112296903711</v>
+      </c>
+      <c r="H12" s="14">
+        <f>(Data_Ictio!G12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <f>(Data_Ictio!H12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <f>(Data_Ictio!I12/Hoja2!$C12)*1000</f>
+        <v>4838.7802134426674</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(Data_Ictio!J12/Hoja2!$C12)*1000</f>
+        <v>268.82112296903711</v>
+      </c>
+      <c r="L12" s="14">
+        <f>(Data_Ictio!K12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <f>(Data_Ictio!L12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <f>(Data_Ictio!M12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <f>(Data_Ictio!N12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <f>(Data_Ictio!O12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <f>(Data_Ictio!P12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <f>(Data_Ictio!Q12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <f>(Data_Ictio!R12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <f>(Data_Ictio!S12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <f>(Data_Ictio!T12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <f>(Data_Ictio!U12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <f>(Data_Ictio!V12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <f>(Data_Ictio!W12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <f>(Data_Ictio!X12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <f>(Data_Ictio!Y12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <f>(Data_Ictio!Z12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <f>(Data_Ictio!AA12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <f>(Data_Ictio!AB12/Hoja2!$C12)*1000</f>
+        <v>537.64224593807421</v>
+      </c>
+      <c r="AD12" s="14">
+        <f>(Data_Ictio!AC12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="14">
+        <f>(Data_Ictio!AD12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <f>(Data_Ictio!AE12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <f>(Data_Ictio!AF12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <f>(Data_Ictio!AG12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <f>(Data_Ictio!AH12/Hoja2!$C12)*1000</f>
+        <v>268.82112296903711</v>
+      </c>
+      <c r="AJ12" s="14">
+        <f>(Data_Ictio!AI12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="14">
+        <f>(Data_Ictio!AJ12/Hoja2!$C12)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5.4137083160083161</v>
+      </c>
+      <c r="D13" s="14">
+        <f>(Data_Ictio!C13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <f>(Data_Ictio!D13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <f>(Data_Ictio!E13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <f>(Data_Ictio!F13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f>(Data_Ictio!G13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <f>(Data_Ictio!H13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>(Data_Ictio!I13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <f>(Data_Ictio!J13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <f>(Data_Ictio!K13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <f>(Data_Ictio!L13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <f>(Data_Ictio!M13/Hoja2!$C13)*1000</f>
+        <v>2401.3114931883283</v>
+      </c>
+      <c r="O13" s="14">
+        <f>(Data_Ictio!N13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <f>(Data_Ictio!O13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <f>(Data_Ictio!P13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <f>(Data_Ictio!Q13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <f>(Data_Ictio!R13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f>(Data_Ictio!S13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <f>(Data_Ictio!T13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <f>(Data_Ictio!U13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <f>(Data_Ictio!V13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <f>(Data_Ictio!W13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
+        <f>(Data_Ictio!X13/Hoja2!$C13)*1000</f>
+        <v>738.86507482717786</v>
+      </c>
+      <c r="Z13" s="14">
+        <f>(Data_Ictio!Y13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>(Data_Ictio!Z13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <f>(Data_Ictio!AA13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <f>(Data_Ictio!AB13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <f>(Data_Ictio!AC13/Hoja2!$C13)*1000</f>
+        <v>184.71626870679447</v>
+      </c>
+      <c r="AE13" s="14">
+        <f>(Data_Ictio!AD13/Hoja2!$C13)*1000</f>
+        <v>369.43253741358893</v>
+      </c>
+      <c r="AF13" s="14">
+        <f>(Data_Ictio!AE13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <f>(Data_Ictio!AF13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <f>(Data_Ictio!AG13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14">
+        <f>(Data_Ictio!AH13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="14">
+        <f>(Data_Ictio!AI13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="14">
+        <f>(Data_Ictio!AJ13/Hoja2!$C13)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="14"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="13">
+        <v>6.5850954954954952</v>
+      </c>
+      <c r="D14" s="14">
+        <f>(Data_Ictio!C14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f>(Data_Ictio!D14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <f>(Data_Ictio!E14/Hoja2!$C14)*1000</f>
+        <v>455.57425887781528</v>
+      </c>
+      <c r="G14" s="14">
+        <f>(Data_Ictio!F14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f>(Data_Ictio!G14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <f>(Data_Ictio!H14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f>(Data_Ictio!I14/Hoja2!$C14)*1000</f>
+        <v>2277.8712943890764</v>
+      </c>
+      <c r="K14" s="14">
+        <f>(Data_Ictio!J14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <f>(Data_Ictio!K14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f>(Data_Ictio!L14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <f>(Data_Ictio!M14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <f>(Data_Ictio!N14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <f>(Data_Ictio!O14/Hoja2!$C14)*1000</f>
+        <v>151.85808629260509</v>
+      </c>
+      <c r="Q14" s="14">
+        <f>(Data_Ictio!P14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <f>(Data_Ictio!Q14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f>(Data_Ictio!R14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f>(Data_Ictio!S14/Hoja2!$C14)*1000</f>
+        <v>151.85808629260509</v>
+      </c>
+      <c r="U14" s="14">
+        <f>(Data_Ictio!T14/Hoja2!$C14)*1000</f>
+        <v>151.85808629260509</v>
+      </c>
+      <c r="V14" s="14">
+        <f>(Data_Ictio!U14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <f>(Data_Ictio!V14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="14">
+        <f>(Data_Ictio!W14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14">
+        <f>(Data_Ictio!X14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <f>(Data_Ictio!Y14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <f>(Data_Ictio!Z14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <f>(Data_Ictio!AA14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <f>(Data_Ictio!AB14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <f>(Data_Ictio!AC14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <f>(Data_Ictio!AD14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <f>(Data_Ictio!AE14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <f>(Data_Ictio!AF14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14">
+        <f>(Data_Ictio!AG14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="14">
+        <f>(Data_Ictio!AH14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="14">
+        <f>(Data_Ictio!AI14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="14">
+        <f>(Data_Ictio!AJ14/Hoja2!$C14)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="14"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5.5192386925386927</v>
+      </c>
+      <c r="D15" s="14">
+        <f>(Data_Ictio!C15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <f>(Data_Ictio!D15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f>(Data_Ictio!E15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <f>(Data_Ictio!F15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <f>(Data_Ictio!G15/Hoja2!$C15)*1000</f>
+        <v>905.92204442242416</v>
+      </c>
+      <c r="I15" s="14">
+        <f>(Data_Ictio!H15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <f>(Data_Ictio!I15/Hoja2!$C15)*1000</f>
+        <v>9421.5892619932129</v>
+      </c>
+      <c r="K15" s="14">
+        <f>(Data_Ictio!J15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <f>(Data_Ictio!K15/Hoja2!$C15)*1000</f>
+        <v>181.18440888448484</v>
+      </c>
+      <c r="M15" s="14">
+        <f>(Data_Ictio!L15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <f>(Data_Ictio!M15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <f>(Data_Ictio!N15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <f>(Data_Ictio!O15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>(Data_Ictio!P15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <f>(Data_Ictio!Q15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <f>(Data_Ictio!R15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <f>(Data_Ictio!S15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <f>(Data_Ictio!T15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <f>(Data_Ictio!U15/Hoja2!$C15)*1000</f>
+        <v>1087.1064533069091</v>
+      </c>
+      <c r="W15" s="14">
+        <f>(Data_Ictio!V15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <f>(Data_Ictio!W15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="14">
+        <f>(Data_Ictio!X15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <f>(Data_Ictio!Y15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>(Data_Ictio!Z15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <f>(Data_Ictio!AA15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <f>(Data_Ictio!AB15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <f>(Data_Ictio!AC15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <f>(Data_Ictio!AD15/Hoja2!$C15)*1000</f>
+        <v>2174.2129066138182</v>
+      </c>
+      <c r="AF15" s="14">
+        <f>(Data_Ictio!AE15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
+        <f>(Data_Ictio!AF15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14">
+        <f>(Data_Ictio!AG15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14">
+        <f>(Data_Ictio!AH15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="14">
+        <f>(Data_Ictio!AI15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="14">
+        <f>(Data_Ictio!AJ15/Hoja2!$C15)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="14"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5.4928560984060981</v>
+      </c>
+      <c r="D16" s="14">
+        <f>(Data_Ictio!C16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <f>(Data_Ictio!D16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <f>(Data_Ictio!E16/Hoja2!$C16)*1000</f>
+        <v>728.2186040083426</v>
+      </c>
+      <c r="G16" s="14">
+        <f>(Data_Ictio!F16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f>(Data_Ictio!G16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <f>(Data_Ictio!H16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <f>(Data_Ictio!I16/Hoja2!$C16)*1000</f>
+        <v>4005.2023220458841</v>
+      </c>
+      <c r="K16" s="14">
+        <f>(Data_Ictio!J16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <f>(Data_Ictio!K16/Hoja2!$C16)*1000</f>
+        <v>182.05465100208565</v>
+      </c>
+      <c r="M16" s="14">
+        <f>(Data_Ictio!L16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <f>(Data_Ictio!M16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <f>(Data_Ictio!N16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <f>(Data_Ictio!O16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <f>(Data_Ictio!P16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <f>(Data_Ictio!Q16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <f>(Data_Ictio!R16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <f>(Data_Ictio!S16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <f>(Data_Ictio!T16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <f>(Data_Ictio!U16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <f>(Data_Ictio!V16/Hoja2!$C16)*1000</f>
+        <v>910.27325501042822</v>
+      </c>
+      <c r="X16" s="14">
+        <f>(Data_Ictio!W16/Hoja2!$C16)*1000</f>
+        <v>182.05465100208565</v>
+      </c>
+      <c r="Y16" s="14">
+        <f>(Data_Ictio!X16/Hoja2!$C16)*1000</f>
+        <v>4915.4755770563124</v>
+      </c>
+      <c r="Z16" s="14">
+        <f>(Data_Ictio!Y16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>(Data_Ictio!Z16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <f>(Data_Ictio!AA16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <f>(Data_Ictio!AB16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <f>(Data_Ictio!AC16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <f>(Data_Ictio!AD16/Hoja2!$C16)*1000</f>
+        <v>182.05465100208565</v>
+      </c>
+      <c r="AF16" s="14">
+        <f>(Data_Ictio!AE16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
+        <f>(Data_Ictio!AF16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <f>(Data_Ictio!AG16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14">
+        <f>(Data_Ictio!AH16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14">
+        <f>(Data_Ictio!AI16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="14">
+        <f>(Data_Ictio!AJ16/Hoja2!$C16)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="14"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5.1076702240702243</v>
+      </c>
+      <c r="D17" s="14">
+        <f>(Data_Ictio!C17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <f>(Data_Ictio!D17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f>(Data_Ictio!E17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <f>(Data_Ictio!F17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f>(Data_Ictio!G17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <f>(Data_Ictio!H17/Hoja2!$C17)*1000</f>
+        <v>391.56795804374201</v>
+      </c>
+      <c r="J17" s="14">
+        <f>(Data_Ictio!I17/Hoja2!$C17)*1000</f>
+        <v>12921.742615443487</v>
+      </c>
+      <c r="K17" s="14">
+        <f>(Data_Ictio!J17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <f>(Data_Ictio!K17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <f>(Data_Ictio!L17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <f>(Data_Ictio!M17/Hoja2!$C17)*1000</f>
+        <v>5090.3834545686459</v>
+      </c>
+      <c r="O17" s="14">
+        <f>(Data_Ictio!N17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <f>(Data_Ictio!O17/Hoja2!$C17)*1000</f>
+        <v>2545.191727284323</v>
+      </c>
+      <c r="Q17" s="14">
+        <f>(Data_Ictio!P17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
+        <f>(Data_Ictio!Q17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <f>(Data_Ictio!R17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <f>(Data_Ictio!S17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <f>(Data_Ictio!T17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <f>(Data_Ictio!U17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <f>(Data_Ictio!V17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <f>(Data_Ictio!W17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14">
+        <f>(Data_Ictio!X17/Hoja2!$C17)*1000</f>
+        <v>2349.4077482624521</v>
+      </c>
+      <c r="Z17" s="14">
+        <f>(Data_Ictio!Y17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <f>(Data_Ictio!Z17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <f>(Data_Ictio!AA17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <f>(Data_Ictio!AB17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <f>(Data_Ictio!AC17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <f>(Data_Ictio!AD17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <f>(Data_Ictio!AE17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
+        <f>(Data_Ictio!AF17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
+        <f>(Data_Ictio!AG17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14">
+        <f>(Data_Ictio!AH17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="14">
+        <f>(Data_Ictio!AI17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="14">
+        <f>(Data_Ictio!AJ17/Hoja2!$C17)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="14"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5.1023937052437054</v>
+      </c>
+      <c r="D18" s="14">
+        <f>(Data_Ictio!C18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <f>(Data_Ictio!D18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f>(Data_Ictio!E18/Hoja2!$C18)*1000</f>
+        <v>979.93222178475264</v>
+      </c>
+      <c r="G18" s="14">
+        <f>(Data_Ictio!F18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <f>(Data_Ictio!G18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <f>(Data_Ictio!H18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <f>(Data_Ictio!I18/Hoja2!$C18)*1000</f>
+        <v>6271.566219422416</v>
+      </c>
+      <c r="K18" s="14">
+        <f>(Data_Ictio!J18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <f>(Data_Ictio!K18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <f>(Data_Ictio!L18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <f>(Data_Ictio!M18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <f>(Data_Ictio!N18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <f>(Data_Ictio!O18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <f>(Data_Ictio!P18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <f>(Data_Ictio!Q18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
+        <f>(Data_Ictio!R18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <f>(Data_Ictio!S18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="14">
+        <f>(Data_Ictio!T18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <f>(Data_Ictio!U18/Hoja2!$C18)*1000</f>
+        <v>195.9864443569505</v>
+      </c>
+      <c r="W18" s="14">
+        <f>(Data_Ictio!V18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <f>(Data_Ictio!W18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="14">
+        <f>(Data_Ictio!X18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14">
+        <f>(Data_Ictio!Y18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <f>(Data_Ictio!Z18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <f>(Data_Ictio!AA18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
+        <f>(Data_Ictio!AB18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <f>(Data_Ictio!AC18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <f>(Data_Ictio!AD18/Hoja2!$C18)*1000</f>
+        <v>391.972888713901</v>
+      </c>
+      <c r="AF18" s="14">
+        <f>(Data_Ictio!AE18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14">
+        <f>(Data_Ictio!AF18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <f>(Data_Ictio!AG18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="14">
+        <f>(Data_Ictio!AH18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="14">
+        <f>(Data_Ictio!AI18/Hoja2!$C18)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="14">
+        <f>(Data_Ictio!AJ18/Hoja2!$C18)*1000</f>
+        <v>783.945777427802</v>
+      </c>
+      <c r="AL18" s="14"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3.9362830445830448</v>
+      </c>
+      <c r="D19" s="14">
+        <f>(Data_Ictio!C19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <f>(Data_Ictio!D19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f>(Data_Ictio!E19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <f>(Data_Ictio!F19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <f>(Data_Ictio!G19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <f>(Data_Ictio!H19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14">
+        <f>(Data_Ictio!I19/Hoja2!$C19)*1000</f>
+        <v>3810.701575599956</v>
+      </c>
+      <c r="K19" s="14">
+        <f>(Data_Ictio!J19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <f>(Data_Ictio!K19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <f>(Data_Ictio!L19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <f>(Data_Ictio!M19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <f>(Data_Ictio!N19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <f>(Data_Ictio!O19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <f>(Data_Ictio!P19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <f>(Data_Ictio!Q19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <f>(Data_Ictio!R19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
+        <f>(Data_Ictio!S19/Hoja2!$C19)*1000</f>
+        <v>508.09354341332744</v>
+      </c>
+      <c r="U19" s="14">
+        <f>(Data_Ictio!T19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <f>(Data_Ictio!U19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <f>(Data_Ictio!V19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <f>(Data_Ictio!W19/Hoja2!$C19)*1000</f>
+        <v>1524.2806302399822</v>
+      </c>
+      <c r="Y19" s="14">
+        <f>(Data_Ictio!X19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="14">
+        <f>(Data_Ictio!Y19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14">
+        <f>(Data_Ictio!Z19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14">
+        <f>(Data_Ictio!AA19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <f>(Data_Ictio!AB19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <f>(Data_Ictio!AC19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <f>(Data_Ictio!AD19/Hoja2!$C19)*1000</f>
+        <v>254.04677170666372</v>
+      </c>
+      <c r="AF19" s="14">
+        <f>(Data_Ictio!AE19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
+        <f>(Data_Ictio!AF19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14">
+        <f>(Data_Ictio!AG19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14">
+        <f>(Data_Ictio!AH19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="14">
+        <f>(Data_Ictio!AI19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="14">
+        <f>(Data_Ictio!AJ19/Hoja2!$C19)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="14"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3.4825024255024251</v>
+      </c>
+      <c r="D20" s="14">
+        <f>(Data_Ictio!C20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <f>(Data_Ictio!D20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f>(Data_Ictio!E20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f>(Data_Ictio!F20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f>(Data_Ictio!G20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <f>(Data_Ictio!H20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <f>(Data_Ictio!I20/Hoja2!$C20)*1000</f>
+        <v>287.14983589874419</v>
+      </c>
+      <c r="K20" s="14">
+        <f>(Data_Ictio!J20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <f>(Data_Ictio!K20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <f>(Data_Ictio!L20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <f>(Data_Ictio!M20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <f>(Data_Ictio!N20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <f>(Data_Ictio!O20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <f>(Data_Ictio!P20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
+        <f>(Data_Ictio!Q20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <f>(Data_Ictio!R20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <f>(Data_Ictio!S20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="14">
+        <f>(Data_Ictio!T20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <f>(Data_Ictio!U20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14">
+        <f>(Data_Ictio!V20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <f>(Data_Ictio!W20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="14">
+        <f>(Data_Ictio!X20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="14">
+        <f>(Data_Ictio!Y20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14">
+        <f>(Data_Ictio!Z20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <f>(Data_Ictio!AA20/Hoja2!$C20)*1000</f>
+        <v>574.29967179748837</v>
+      </c>
+      <c r="AC20" s="14">
+        <f>(Data_Ictio!AB20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <f>(Data_Ictio!AC20/Hoja2!$C20)*1000</f>
+        <v>574.29967179748837</v>
+      </c>
+      <c r="AE20" s="14">
+        <f>(Data_Ictio!AD20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
+        <f>(Data_Ictio!AE20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
+        <f>(Data_Ictio!AF20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14">
+        <f>(Data_Ictio!AG20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="14">
+        <f>(Data_Ictio!AH20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="14">
+        <f>(Data_Ictio!AI20/Hoja2!$C20)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="14">
+        <f>(Data_Ictio!AJ20/Hoja2!$C20)*1000</f>
+        <v>287.14983589874419</v>
+      </c>
+      <c r="AL20" s="15"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3.5985858396858394</v>
+      </c>
+      <c r="D21" s="14">
+        <f>(Data_Ictio!C21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <f>(Data_Ictio!D21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <f>(Data_Ictio!E21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <f>(Data_Ictio!F21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f>(Data_Ictio!G21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="14">
+        <f>(Data_Ictio!H21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <f>(Data_Ictio!I21/Hoja2!$C21)*1000</f>
+        <v>555.77387593305332</v>
+      </c>
+      <c r="K21" s="14">
+        <f>(Data_Ictio!J21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <f>(Data_Ictio!K21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <f>(Data_Ictio!L21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <f>(Data_Ictio!M21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <f>(Data_Ictio!N21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <f>(Data_Ictio!O21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <f>(Data_Ictio!P21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="14">
+        <f>(Data_Ictio!Q21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <f>(Data_Ictio!R21/Hoja2!$C21)*1000</f>
+        <v>277.88693796652666</v>
+      </c>
+      <c r="T21" s="14">
+        <f>(Data_Ictio!S21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="14">
+        <f>(Data_Ictio!T21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <f>(Data_Ictio!U21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <f>(Data_Ictio!V21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <f>(Data_Ictio!W21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>(Data_Ictio!X21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="14">
+        <f>(Data_Ictio!Y21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14">
+        <f>(Data_Ictio!Z21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="14">
+        <f>(Data_Ictio!AA21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <f>(Data_Ictio!AB21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <f>(Data_Ictio!AC21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14">
+        <f>(Data_Ictio!AD21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
+        <f>(Data_Ictio!AE21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
+        <f>(Data_Ictio!AF21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14">
+        <f>(Data_Ictio!AG21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14">
+        <f>(Data_Ictio!AH21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="14">
+        <f>(Data_Ictio!AI21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="14">
+        <f>(Data_Ictio!AJ21/Hoja2!$C21)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="14"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13">
+        <v>3.7990935550935552</v>
+      </c>
+      <c r="D22" s="14">
+        <f>(Data_Ictio!C22/Hoja2!$C22)*1000</f>
+        <v>263.22068290718215</v>
+      </c>
+      <c r="E22" s="14">
+        <f>(Data_Ictio!D22/Hoja2!$C22)*1000</f>
+        <v>263.22068290718215</v>
+      </c>
+      <c r="F22" s="14">
+        <f>(Data_Ictio!E22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f>(Data_Ictio!F22/Hoja2!$C22)*1000</f>
+        <v>263.22068290718215</v>
+      </c>
+      <c r="H22" s="14">
+        <f>(Data_Ictio!G22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <f>(Data_Ictio!H22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <f>(Data_Ictio!I22/Hoja2!$C22)*1000</f>
+        <v>1052.8827316287286</v>
+      </c>
+      <c r="K22" s="14">
+        <f>(Data_Ictio!J22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <f>(Data_Ictio!K22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <f>(Data_Ictio!L22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <f>(Data_Ictio!M22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <f>(Data_Ictio!N22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="14">
+        <f>(Data_Ictio!O22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14">
+        <f>(Data_Ictio!P22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <f>(Data_Ictio!Q22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f>(Data_Ictio!R22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <f>(Data_Ictio!S22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <f>(Data_Ictio!T22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <f>(Data_Ictio!U22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14">
+        <f>(Data_Ictio!V22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="14">
+        <f>(Data_Ictio!W22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="14">
+        <f>(Data_Ictio!X22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <f>(Data_Ictio!Y22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14">
+        <f>(Data_Ictio!Z22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <f>(Data_Ictio!AA22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <f>(Data_Ictio!AB22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <f>(Data_Ictio!AC22/Hoja2!$C22)*1000</f>
+        <v>263.22068290718215</v>
+      </c>
+      <c r="AE22" s="14">
+        <f>(Data_Ictio!AD22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14">
+        <f>(Data_Ictio!AE22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="14">
+        <f>(Data_Ictio!AF22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14">
+        <f>(Data_Ictio!AG22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="14">
+        <f>(Data_Ictio!AH22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="14">
+        <f>(Data_Ictio!AI22/Hoja2!$C22)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="14">
+        <f>(Data_Ictio!AJ22/Hoja2!$C22)*1000</f>
+        <v>3685.08956070055</v>
+      </c>
+      <c r="AL22" s="14"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4.0470899399399398</v>
+      </c>
+      <c r="D23" s="14">
+        <f>(Data_Ictio!C23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <f>(Data_Ictio!D23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <f>(Data_Ictio!E23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <f>(Data_Ictio!F23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <f>(Data_Ictio!G23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <f>(Data_Ictio!H23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f>(Data_Ictio!I23/Hoja2!$C23)*1000</f>
+        <v>5436.004716101389</v>
+      </c>
+      <c r="K23" s="14">
+        <f>(Data_Ictio!J23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <f>(Data_Ictio!K23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <f>(Data_Ictio!L23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f>(Data_Ictio!M23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <f>(Data_Ictio!N23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <f>(Data_Ictio!O23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <f>(Data_Ictio!P23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <f>(Data_Ictio!Q23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <f>(Data_Ictio!R23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <f>(Data_Ictio!S23/Hoja2!$C23)*1000</f>
+        <v>247.09112345915403</v>
+      </c>
+      <c r="U23" s="14">
+        <f>(Data_Ictio!T23/Hoja2!$C23)*1000</f>
+        <v>247.09112345915403</v>
+      </c>
+      <c r="V23" s="14">
+        <f>(Data_Ictio!U23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <f>(Data_Ictio!V23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <f>(Data_Ictio!W23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>(Data_Ictio!X23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <f>(Data_Ictio!Y23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <f>(Data_Ictio!Z23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14">
+        <f>(Data_Ictio!AA23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f>(Data_Ictio!AB23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f>(Data_Ictio!AC23/Hoja2!$C23)*1000</f>
+        <v>741.27337037746213</v>
+      </c>
+      <c r="AE23" s="14">
+        <f>(Data_Ictio!AD23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <f>(Data_Ictio!AE23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14">
+        <f>(Data_Ictio!AF23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14">
+        <f>(Data_Ictio!AG23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="14">
+        <f>(Data_Ictio!AH23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="14">
+        <f>(Data_Ictio!AI23/Hoja2!$C23)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="14">
+        <f>(Data_Ictio!AJ23/Hoja2!$C23)*1000</f>
+        <v>494.18224691830807</v>
+      </c>
+      <c r="AL23" s="14"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13">
+        <v>4.3953401824901821</v>
+      </c>
+      <c r="D24" s="14">
+        <f>(Data_Ictio!C24/Hoja2!$C24)*1000</f>
+        <v>455.02735100401242</v>
+      </c>
+      <c r="E24" s="14">
+        <f>(Data_Ictio!D24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <f>(Data_Ictio!E24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <f>(Data_Ictio!F24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <f>(Data_Ictio!G24/Hoja2!$C24)*1000</f>
+        <v>1137.5683775100308</v>
+      </c>
+      <c r="I24" s="14">
+        <f>(Data_Ictio!H24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14">
+        <f>(Data_Ictio!I24/Hoja2!$C24)*1000</f>
+        <v>682.54102650601851</v>
+      </c>
+      <c r="K24" s="14">
+        <f>(Data_Ictio!J24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <f>(Data_Ictio!K24/Hoja2!$C24)*1000</f>
+        <v>227.51367550200621</v>
+      </c>
+      <c r="M24" s="14">
+        <f>(Data_Ictio!L24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <f>(Data_Ictio!M24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="14">
+        <f>(Data_Ictio!N24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="14">
+        <f>(Data_Ictio!O24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <f>(Data_Ictio!P24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <f>(Data_Ictio!Q24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f>(Data_Ictio!R24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <f>(Data_Ictio!S24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="14">
+        <f>(Data_Ictio!T24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <f>(Data_Ictio!U24/Hoja2!$C24)*1000</f>
+        <v>1365.082053012037</v>
+      </c>
+      <c r="W24" s="14">
+        <f>(Data_Ictio!V24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <f>(Data_Ictio!W24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>(Data_Ictio!X24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <f>(Data_Ictio!Y24/Hoja2!$C24)*1000</f>
+        <v>227.51367550200621</v>
+      </c>
+      <c r="AA24" s="14">
+        <f>(Data_Ictio!Z24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <f>(Data_Ictio!AA24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <f>(Data_Ictio!AB24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <f>(Data_Ictio!AC24/Hoja2!$C24)*1000</f>
+        <v>910.05470200802483</v>
+      </c>
+      <c r="AE24" s="14">
+        <f>(Data_Ictio!AD24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <f>(Data_Ictio!AE24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14">
+        <f>(Data_Ictio!AF24/Hoja2!$C24)*1000</f>
+        <v>455.02735100401242</v>
+      </c>
+      <c r="AH24" s="14">
+        <f>(Data_Ictio!AG24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="14">
+        <f>(Data_Ictio!AH24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="14">
+        <f>(Data_Ictio!AI24/Hoja2!$C24)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="14">
+        <f>(Data_Ictio!AJ24/Hoja2!$C24)*1000</f>
+        <v>4550.2735100401233</v>
+      </c>
+      <c r="AL24" s="14"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="13">
+        <v>7.2130012358512356</v>
+      </c>
+      <c r="D25" s="14">
+        <f>(Data_Ictio!C25/Hoja2!$C25)*1000</f>
+        <v>277.27709099220363</v>
+      </c>
+      <c r="E25" s="14">
+        <f>(Data_Ictio!D25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <f>(Data_Ictio!E25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <f>(Data_Ictio!F25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <f>(Data_Ictio!G25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="14">
+        <f>(Data_Ictio!H25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <f>(Data_Ictio!I25/Hoja2!$C25)*1000</f>
+        <v>17052.541096020519</v>
+      </c>
+      <c r="K25" s="14">
+        <f>(Data_Ictio!J25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <f>(Data_Ictio!K25/Hoja2!$C25)*1000</f>
+        <v>138.63854549610181</v>
+      </c>
+      <c r="M25" s="14">
+        <f>(Data_Ictio!L25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f>(Data_Ictio!M25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <f>(Data_Ictio!N25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <f>(Data_Ictio!O25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <f>(Data_Ictio!P25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
+        <f>(Data_Ictio!Q25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="14">
+        <f>(Data_Ictio!R25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <f>(Data_Ictio!S25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <f>(Data_Ictio!T25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <f>(Data_Ictio!U25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="14">
+        <f>(Data_Ictio!V25/Hoja2!$C25)*1000</f>
+        <v>693.19272748050901</v>
+      </c>
+      <c r="X25" s="14">
+        <f>(Data_Ictio!W25/Hoja2!$C25)*1000</f>
+        <v>138.63854549610181</v>
+      </c>
+      <c r="Y25" s="14">
+        <f>(Data_Ictio!X25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="14">
+        <f>(Data_Ictio!Y25/Hoja2!$C25)*1000</f>
+        <v>693.19272748050901</v>
+      </c>
+      <c r="AA25" s="14">
+        <f>(Data_Ictio!Z25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <f>(Data_Ictio!AA25/Hoja2!$C25)*1000</f>
+        <v>277.27709099220363</v>
+      </c>
+      <c r="AC25" s="14">
+        <f>(Data_Ictio!AB25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <f>(Data_Ictio!AC25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <f>(Data_Ictio!AD25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <f>(Data_Ictio!AE25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
+        <f>(Data_Ictio!AF25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <f>(Data_Ictio!AG25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="14">
+        <f>(Data_Ictio!AH25/Hoja2!$C25)*1000</f>
+        <v>277.27709099220363</v>
+      </c>
+      <c r="AJ25" s="14">
+        <f>(Data_Ictio!AI25/Hoja2!$C25)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="14">
+        <f>(Data_Ictio!AJ25/Hoja2!$C25)*1000</f>
+        <v>1386.385454961018</v>
+      </c>
+      <c r="AL25" s="14"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13">
+        <v>6.7222849849849853</v>
+      </c>
+      <c r="D26" s="14">
+        <f>(Data_Ictio!C26/Hoja2!$C26)*1000</f>
+        <v>148.75894167438867</v>
+      </c>
+      <c r="E26" s="14">
+        <f>(Data_Ictio!D26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <f>(Data_Ictio!E26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <f>(Data_Ictio!F26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <f>(Data_Ictio!G26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>(Data_Ictio!H26/Hoja2!$C26)*1000</f>
+        <v>297.51788334877733</v>
+      </c>
+      <c r="J26" s="14">
+        <f>(Data_Ictio!I26/Hoja2!$C26)*1000</f>
+        <v>9818.0901505096499</v>
+      </c>
+      <c r="K26" s="14">
+        <f>(Data_Ictio!J26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <f>(Data_Ictio!K26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <f>(Data_Ictio!L26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="14">
+        <f>(Data_Ictio!M26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="14">
+        <f>(Data_Ictio!N26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="14">
+        <f>(Data_Ictio!O26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <f>(Data_Ictio!P26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="14">
+        <f>(Data_Ictio!Q26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="14">
+        <f>(Data_Ictio!R26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <f>(Data_Ictio!S26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="14">
+        <f>(Data_Ictio!T26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <f>(Data_Ictio!U26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14">
+        <f>(Data_Ictio!V26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <f>(Data_Ictio!W26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="14">
+        <f>(Data_Ictio!X26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="14">
+        <f>(Data_Ictio!Y26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <f>(Data_Ictio!Z26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <f>(Data_Ictio!AA26/Hoja2!$C26)*1000</f>
+        <v>148.75894167438867</v>
+      </c>
+      <c r="AC26" s="14">
+        <f>(Data_Ictio!AB26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <f>(Data_Ictio!AC26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="14">
+        <f>(Data_Ictio!AD26/Hoja2!$C26)*1000</f>
+        <v>297.51788334877733</v>
+      </c>
+      <c r="AF26" s="14">
+        <f>(Data_Ictio!AE26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="14">
+        <f>(Data_Ictio!AF26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14">
+        <f>(Data_Ictio!AG26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="14">
+        <f>(Data_Ictio!AH26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="14">
+        <f>(Data_Ictio!AI26/Hoja2!$C26)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="14">
+        <f>(Data_Ictio!AJ26/Hoja2!$C26)*1000</f>
+        <v>4314.0093085572707</v>
+      </c>
+      <c r="AL26" s="14"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5.355666608916609</v>
+      </c>
+      <c r="D27" s="14">
+        <f>(Data_Ictio!C27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <f>(Data_Ictio!D27/Hoja2!$C27)*1000</f>
+        <v>186.71811989474989</v>
+      </c>
+      <c r="F27" s="14">
+        <f>(Data_Ictio!E27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f>(Data_Ictio!F27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <f>(Data_Ictio!G27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <f>(Data_Ictio!H27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <f>(Data_Ictio!I27/Hoja2!$C27)*1000</f>
+        <v>29128.026703580985</v>
+      </c>
+      <c r="K27" s="14">
+        <f>(Data_Ictio!J27/Hoja2!$C27)*1000</f>
+        <v>186.71811989474989</v>
+      </c>
+      <c r="L27" s="14">
+        <f>(Data_Ictio!K27/Hoja2!$C27)*1000</f>
+        <v>373.43623978949978</v>
+      </c>
+      <c r="M27" s="14">
+        <f>(Data_Ictio!L27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <f>(Data_Ictio!M27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="14">
+        <f>(Data_Ictio!N27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="14">
+        <f>(Data_Ictio!O27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>(Data_Ictio!P27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
+        <f>(Data_Ictio!Q27/Hoja2!$C27)*1000</f>
+        <v>1120.3087193684994</v>
+      </c>
+      <c r="S27" s="14">
+        <f>(Data_Ictio!R27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="14">
+        <f>(Data_Ictio!S27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="14">
+        <f>(Data_Ictio!T27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <f>(Data_Ictio!U27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14">
+        <f>(Data_Ictio!V27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="14">
+        <f>(Data_Ictio!W27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="14">
+        <f>(Data_Ictio!X27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="14">
+        <f>(Data_Ictio!Y27/Hoja2!$C27)*1000</f>
+        <v>186.71811989474989</v>
+      </c>
+      <c r="AA27" s="14">
+        <f>(Data_Ictio!Z27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <f>(Data_Ictio!AA27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <f>(Data_Ictio!AB27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <f>(Data_Ictio!AC27/Hoja2!$C27)*1000</f>
+        <v>746.87247957899956</v>
+      </c>
+      <c r="AE27" s="14">
+        <f>(Data_Ictio!AD27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
+        <f>(Data_Ictio!AE27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14">
+        <f>(Data_Ictio!AF27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14">
+        <f>(Data_Ictio!AG27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="14">
+        <f>(Data_Ictio!AH27/Hoja2!$C27)*1000</f>
+        <v>186.71811989474989</v>
+      </c>
+      <c r="AJ27" s="14">
+        <f>(Data_Ictio!AI27/Hoja2!$C27)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="14">
+        <f>(Data_Ictio!AJ27/Hoja2!$C27)*1000</f>
+        <v>373.43623978949978</v>
+      </c>
+      <c r="AL27" s="14"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="13">
+        <v>6.5059477130977124</v>
+      </c>
+      <c r="D28" s="14">
+        <f>(Data_Ictio!C28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f>(Data_Ictio!D28/Hoja2!$C28)*1000</f>
+        <v>307.41101653393537</v>
+      </c>
+      <c r="F28" s="14">
+        <f>(Data_Ictio!E28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <f>(Data_Ictio!F28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <f>(Data_Ictio!G28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f>(Data_Ictio!H28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="J28" s="14">
+        <f>(Data_Ictio!I28/Hoja2!$C28)*1000</f>
+        <v>3688.9321984072249</v>
+      </c>
+      <c r="K28" s="14">
+        <f>(Data_Ictio!J28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <f>(Data_Ictio!K28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <f>(Data_Ictio!L28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="14">
+        <f>(Data_Ictio!M28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="14">
+        <f>(Data_Ictio!N28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <f>(Data_Ictio!O28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <f>(Data_Ictio!P28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="14">
+        <f>(Data_Ictio!Q28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="S28" s="14">
+        <f>(Data_Ictio!R28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="14">
+        <f>(Data_Ictio!S28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <f>(Data_Ictio!T28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <f>(Data_Ictio!U28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14">
+        <f>(Data_Ictio!V28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="X28" s="14">
+        <f>(Data_Ictio!W28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="14">
+        <f>(Data_Ictio!X28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="14">
+        <f>(Data_Ictio!Y28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <f>(Data_Ictio!Z28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <f>(Data_Ictio!AA28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <f>(Data_Ictio!AB28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <f>(Data_Ictio!AC28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <f>(Data_Ictio!AD28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <f>(Data_Ictio!AE28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="AG28" s="14">
+        <f>(Data_Ictio!AF28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14">
+        <f>(Data_Ictio!AG28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="14">
+        <f>(Data_Ictio!AH28/Hoja2!$C28)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="14">
+        <f>(Data_Ictio!AI28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="AK28" s="14">
+        <f>(Data_Ictio!AJ28/Hoja2!$C28)*1000</f>
+        <v>153.70550826696768</v>
+      </c>
+      <c r="AL28" s="14"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5.4084317971817972</v>
+      </c>
+      <c r="D29" s="14">
+        <f>(Data_Ictio!C29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <f>(Data_Ictio!D29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <f>(Data_Ictio!E29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <f>(Data_Ictio!F29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <f>(Data_Ictio!G29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <f>(Data_Ictio!H29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <f>(Data_Ictio!I29/Hoja2!$C29)*1000</f>
+        <v>5361.9979113189893</v>
+      </c>
+      <c r="K29" s="14">
+        <f>(Data_Ictio!J29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <f>(Data_Ictio!K29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
+        <f>(Data_Ictio!L29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="14">
+        <f>(Data_Ictio!M29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="14">
+        <f>(Data_Ictio!N29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="14">
+        <f>(Data_Ictio!O29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <f>(Data_Ictio!P29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="14">
+        <f>(Data_Ictio!Q29/Hoja2!$C29)*1000</f>
+        <v>184.89647970065479</v>
+      </c>
+      <c r="S29" s="14">
+        <f>(Data_Ictio!R29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="14">
+        <f>(Data_Ictio!S29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <f>(Data_Ictio!T29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <f>(Data_Ictio!U29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14">
+        <f>(Data_Ictio!V29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="14">
+        <f>(Data_Ictio!W29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <f>(Data_Ictio!X29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <f>(Data_Ictio!Y29/Hoja2!$C29)*1000</f>
+        <v>369.79295940130959</v>
+      </c>
+      <c r="AA29" s="14">
+        <f>(Data_Ictio!Z29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <f>(Data_Ictio!AA29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <f>(Data_Ictio!AB29/Hoja2!$C29)*1000</f>
+        <v>184.89647970065479</v>
+      </c>
+      <c r="AD29" s="14">
+        <f>(Data_Ictio!AC29/Hoja2!$C29)*1000</f>
+        <v>184.89647970065479</v>
+      </c>
+      <c r="AE29" s="14">
+        <f>(Data_Ictio!AD29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <f>(Data_Ictio!AE29/Hoja2!$C29)*1000</f>
+        <v>184.89647970065479</v>
+      </c>
+      <c r="AG29" s="14">
+        <f>(Data_Ictio!AF29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14">
+        <f>(Data_Ictio!AG29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14">
+        <f>(Data_Ictio!AH29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="14">
+        <f>(Data_Ictio!AI29/Hoja2!$C29)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="14">
+        <f>(Data_Ictio!AJ29/Hoja2!$C29)*1000</f>
+        <v>1479.1718376052384</v>
+      </c>
+      <c r="AL29" s="14"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="13">
+        <v>10.595249803649804</v>
+      </c>
+      <c r="D30" s="14">
+        <f>(Data_Ictio!C30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <f>(Data_Ictio!D30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <f>(Data_Ictio!E30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <f>(Data_Ictio!F30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <f>(Data_Ictio!G30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="14">
+        <f>(Data_Ictio!H30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="14">
+        <f>(Data_Ictio!I30/Hoja2!$C30)*1000</f>
+        <v>1698.8745271300204</v>
+      </c>
+      <c r="K30" s="14">
+        <f>(Data_Ictio!J30/Hoja2!$C30)*1000</f>
+        <v>94.381918173890014</v>
+      </c>
+      <c r="L30" s="14">
+        <f>(Data_Ictio!K30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <f>(Data_Ictio!L30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="14">
+        <f>(Data_Ictio!M30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="14">
+        <f>(Data_Ictio!N30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="14">
+        <f>(Data_Ictio!O30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <f>(Data_Ictio!P30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="14">
+        <f>(Data_Ictio!Q30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="14">
+        <f>(Data_Ictio!R30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="14">
+        <f>(Data_Ictio!S30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <f>(Data_Ictio!T30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <f>(Data_Ictio!U30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14">
+        <f>(Data_Ictio!V30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="14">
+        <f>(Data_Ictio!W30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="14">
+        <f>(Data_Ictio!X30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="14">
+        <f>(Data_Ictio!Y30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <f>(Data_Ictio!Z30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <f>(Data_Ictio!AA30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
+        <f>(Data_Ictio!AB30/Hoja2!$C30)*1000</f>
+        <v>283.14575452167009</v>
+      </c>
+      <c r="AD30" s="14">
+        <f>(Data_Ictio!AC30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="14">
+        <f>(Data_Ictio!AD30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
+        <f>(Data_Ictio!AE30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14">
+        <f>(Data_Ictio!AF30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14">
+        <f>(Data_Ictio!AG30/Hoja2!$C30)*1000</f>
+        <v>94.381918173890014</v>
+      </c>
+      <c r="AI30" s="14">
+        <f>(Data_Ictio!AH30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="14">
+        <f>(Data_Ictio!AI30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="14">
+        <f>(Data_Ictio!AJ30/Hoja2!$C30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="14"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13">
+        <v>5.3292840147840153</v>
+      </c>
+      <c r="D31" s="14">
+        <f>(Data_Ictio!C31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <f>(Data_Ictio!D31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <f>(Data_Ictio!E31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <f>(Data_Ictio!F31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <f>(Data_Ictio!G31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <f>(Data_Ictio!H31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <f>(Data_Ictio!I31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f>(Data_Ictio!J31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <f>(Data_Ictio!K31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="14">
+        <f>(Data_Ictio!L31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <f>(Data_Ictio!M31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="14">
+        <f>(Data_Ictio!N31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
+        <f>(Data_Ictio!O31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <f>(Data_Ictio!P31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <f>(Data_Ictio!Q31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <f>(Data_Ictio!R31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="14">
+        <f>(Data_Ictio!S31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="14">
+        <f>(Data_Ictio!T31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <f>(Data_Ictio!U31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14">
+        <f>(Data_Ictio!V31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="14">
+        <f>(Data_Ictio!W31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="14">
+        <f>(Data_Ictio!X31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="14">
+        <f>(Data_Ictio!Y31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="14">
+        <f>(Data_Ictio!Z31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14">
+        <f>(Data_Ictio!AA31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
+        <f>(Data_Ictio!AB31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="14">
+        <f>(Data_Ictio!AC31/Hoja2!$C31)*1000</f>
+        <v>375.2849340458834</v>
+      </c>
+      <c r="AE31" s="14">
+        <f>(Data_Ictio!AD31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
+        <f>(Data_Ictio!AE31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14">
+        <f>(Data_Ictio!AF31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="14">
+        <f>(Data_Ictio!AG31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="14">
+        <f>(Data_Ictio!AH31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="14">
+        <f>(Data_Ictio!AI31/Hoja2!$C31)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="14">
+        <f>(Data_Ictio!AJ31/Hoja2!$C31)*1000</f>
+        <v>2814.637005344126</v>
+      </c>
+      <c r="AL31" s="14"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="13">
+        <v>5.2659657888657891</v>
+      </c>
+      <c r="D32" s="14">
+        <f>(Data_Ictio!C32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <f>(Data_Ictio!D32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <f>(Data_Ictio!E32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <f>(Data_Ictio!F32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <f>(Data_Ictio!G32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <f>(Data_Ictio!H32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <f>(Data_Ictio!I32/Hoja2!$C32)*1000</f>
+        <v>2848.4803360697065</v>
+      </c>
+      <c r="K32" s="14">
+        <f>(Data_Ictio!J32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <f>(Data_Ictio!K32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="14">
+        <f>(Data_Ictio!L32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <f>(Data_Ictio!M32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="14">
+        <f>(Data_Ictio!N32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="14">
+        <f>(Data_Ictio!O32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="14">
+        <f>(Data_Ictio!P32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <f>(Data_Ictio!Q32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="14">
+        <f>(Data_Ictio!R32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="14">
+        <f>(Data_Ictio!S32/Hoja2!$C32)*1000</f>
+        <v>189.89868907131378</v>
+      </c>
+      <c r="U32" s="14">
+        <f>(Data_Ictio!T32/Hoja2!$C32)*1000</f>
+        <v>189.89868907131378</v>
+      </c>
+      <c r="V32" s="14">
+        <f>(Data_Ictio!U32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14">
+        <f>(Data_Ictio!V32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="14">
+        <f>(Data_Ictio!W32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="14">
+        <f>(Data_Ictio!X32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="14">
+        <f>(Data_Ictio!Y32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="14">
+        <f>(Data_Ictio!Z32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <f>(Data_Ictio!AA32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
+        <f>(Data_Ictio!AB32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="14">
+        <f>(Data_Ictio!AC32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="14">
+        <f>(Data_Ictio!AD32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
+        <f>(Data_Ictio!AE32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="14">
+        <f>(Data_Ictio!AF32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14">
+        <f>(Data_Ictio!AG32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="14">
+        <f>(Data_Ictio!AH32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="14">
+        <f>(Data_Ictio!AI32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="14">
+        <f>(Data_Ictio!AJ32/Hoja2!$C32)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="14"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="13">
+        <v>5.3029014206514207</v>
+      </c>
+      <c r="D33" s="14">
+        <f>(Data_Ictio!C33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <f>(Data_Ictio!D33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <f>(Data_Ictio!E33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <f>(Data_Ictio!F33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <f>(Data_Ictio!G33/Hoja2!$C33)*1000</f>
+        <v>942.88005817498072</v>
+      </c>
+      <c r="I33" s="14">
+        <f>(Data_Ictio!H33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <f>(Data_Ictio!I33/Hoja2!$C33)*1000</f>
+        <v>2262.9121396199539</v>
+      </c>
+      <c r="K33" s="14">
+        <f>(Data_Ictio!J33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <f>(Data_Ictio!K33/Hoja2!$C33)*1000</f>
+        <v>188.57601163499615</v>
+      </c>
+      <c r="M33" s="14">
+        <f>(Data_Ictio!L33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="14">
+        <f>(Data_Ictio!M33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="14">
+        <f>(Data_Ictio!N33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <f>(Data_Ictio!O33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <f>(Data_Ictio!P33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="14">
+        <f>(Data_Ictio!Q33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="14">
+        <f>(Data_Ictio!R33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="14">
+        <f>(Data_Ictio!S33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="14">
+        <f>(Data_Ictio!T33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="14">
+        <f>(Data_Ictio!U33/Hoja2!$C33)*1000</f>
+        <v>1131.456069809977</v>
+      </c>
+      <c r="W33" s="14">
+        <f>(Data_Ictio!V33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="14">
+        <f>(Data_Ictio!W33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="14">
+        <f>(Data_Ictio!X33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="14">
+        <f>(Data_Ictio!Y33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="14">
+        <f>(Data_Ictio!Z33/Hoja2!$C33)*1000</f>
+        <v>377.1520232699923</v>
+      </c>
+      <c r="AB33" s="14">
+        <f>(Data_Ictio!AA33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="14">
+        <f>(Data_Ictio!AB33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="14">
+        <f>(Data_Ictio!AC33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="14">
+        <f>(Data_Ictio!AD33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="14">
+        <f>(Data_Ictio!AE33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="14">
+        <f>(Data_Ictio!AF33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="14">
+        <f>(Data_Ictio!AG33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="14">
+        <f>(Data_Ictio!AH33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="14">
+        <f>(Data_Ictio!AI33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="14">
+        <f>(Data_Ictio!AJ33/Hoja2!$C33)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="14"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="13">
+        <v>6.2210156964656962</v>
+      </c>
+      <c r="D34" s="14">
+        <f>(Data_Ictio!C34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <f>(Data_Ictio!D34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <f>(Data_Ictio!E34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <f>(Data_Ictio!F34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <f>(Data_Ictio!G34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="14">
+        <f>(Data_Ictio!H34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <f>(Data_Ictio!I34/Hoja2!$C34)*1000</f>
+        <v>6912.0545740511952</v>
+      </c>
+      <c r="K34" s="14">
+        <f>(Data_Ictio!J34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <f>(Data_Ictio!K34/Hoja2!$C34)*1000</f>
+        <v>160.74545521049291</v>
+      </c>
+      <c r="M34" s="14">
+        <f>(Data_Ictio!L34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <f>(Data_Ictio!M34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="14">
+        <f>(Data_Ictio!N34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
+        <f>(Data_Ictio!O34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14">
+        <f>(Data_Ictio!P34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="14">
+        <f>(Data_Ictio!Q34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="14">
+        <f>(Data_Ictio!R34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="14">
+        <f>(Data_Ictio!S34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="14">
+        <f>(Data_Ictio!T34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <f>(Data_Ictio!U34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14">
+        <f>(Data_Ictio!V34/Hoja2!$C34)*1000</f>
+        <v>803.72727605246462</v>
+      </c>
+      <c r="X34" s="14">
+        <f>(Data_Ictio!W34/Hoja2!$C34)*1000</f>
+        <v>160.74545521049291</v>
+      </c>
+      <c r="Y34" s="14">
+        <f>(Data_Ictio!X34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="14">
+        <f>(Data_Ictio!Y34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="14">
+        <f>(Data_Ictio!Z34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14">
+        <f>(Data_Ictio!AA34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="14">
+        <f>(Data_Ictio!AB34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="14">
+        <f>(Data_Ictio!AC34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="14">
+        <f>(Data_Ictio!AD34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="14">
+        <f>(Data_Ictio!AE34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="14">
+        <f>(Data_Ictio!AF34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="14">
+        <f>(Data_Ictio!AG34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="14">
+        <f>(Data_Ictio!AH34/Hoja2!$C34)*1000</f>
+        <v>160.74545521049291</v>
+      </c>
+      <c r="AJ34" s="14">
+        <f>(Data_Ictio!AI34/Hoja2!$C34)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="14">
+        <f>(Data_Ictio!AJ34/Hoja2!$C34)*1000</f>
+        <v>321.49091042098581</v>
+      </c>
+      <c r="AL34" s="14"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="13">
+        <v>5.4770265419265423</v>
+      </c>
+      <c r="D35" s="14">
+        <f>(Data_Ictio!C35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <f>(Data_Ictio!D35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <f>(Data_Ictio!E35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <f>(Data_Ictio!F35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <f>(Data_Ictio!G35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <f>(Data_Ictio!H35/Hoja2!$C35)*1000</f>
+        <v>365.16164102730471</v>
+      </c>
+      <c r="J35" s="14">
+        <f>(Data_Ictio!I35/Hoja2!$C35)*1000</f>
+        <v>12050.334153901054</v>
+      </c>
+      <c r="K35" s="14">
+        <f>(Data_Ictio!J35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <f>(Data_Ictio!K35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="14">
+        <f>(Data_Ictio!L35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <f>(Data_Ictio!M35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <f>(Data_Ictio!N35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
+        <f>(Data_Ictio!O35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <f>(Data_Ictio!P35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="14">
+        <f>(Data_Ictio!Q35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="14">
+        <f>(Data_Ictio!R35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="14">
+        <f>(Data_Ictio!S35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="14">
+        <f>(Data_Ictio!T35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <f>(Data_Ictio!U35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14">
+        <f>(Data_Ictio!V35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="14">
+        <f>(Data_Ictio!W35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14">
+        <f>(Data_Ictio!X35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14">
+        <f>(Data_Ictio!Y35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14">
+        <f>(Data_Ictio!Z35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14">
+        <f>(Data_Ictio!AA35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <f>(Data_Ictio!AB35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14">
+        <f>(Data_Ictio!AC35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="14">
+        <f>(Data_Ictio!AD35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="14">
+        <f>(Data_Ictio!AE35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="14">
+        <f>(Data_Ictio!AF35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14">
+        <f>(Data_Ictio!AG35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="14">
+        <f>(Data_Ictio!AH35/Hoja2!$C35)*1000</f>
+        <v>182.58082051365236</v>
+      </c>
+      <c r="AJ35" s="14">
+        <f>(Data_Ictio!AI35/Hoja2!$C35)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="14">
+        <f>(Data_Ictio!AJ35/Hoja2!$C35)*1000</f>
+        <v>547.74246154095704</v>
+      </c>
+      <c r="AL35" s="14"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="13">
+        <v>5.4506439477939477</v>
+      </c>
+      <c r="D36" s="14">
+        <f>(Data_Ictio!C36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <f>(Data_Ictio!D36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <f>(Data_Ictio!E36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <f>(Data_Ictio!F36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <f>(Data_Ictio!G36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <f>(Data_Ictio!H36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="14">
+        <f>(Data_Ictio!I36/Hoja2!$C36)*1000</f>
+        <v>550.39368352324641</v>
+      </c>
+      <c r="K36" s="14">
+        <f>(Data_Ictio!J36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="14">
+        <f>(Data_Ictio!K36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <f>(Data_Ictio!L36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="14">
+        <f>(Data_Ictio!M36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="14">
+        <f>(Data_Ictio!N36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="14">
+        <f>(Data_Ictio!O36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="14">
+        <f>(Data_Ictio!P36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="14">
+        <f>(Data_Ictio!Q36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="14">
+        <f>(Data_Ictio!R36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="14">
+        <f>(Data_Ictio!S36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="14">
+        <f>(Data_Ictio!T36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <f>(Data_Ictio!U36/Hoja2!$C36)*1000</f>
+        <v>183.46456117441545</v>
+      </c>
+      <c r="W36" s="14">
+        <f>(Data_Ictio!V36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="14">
+        <f>(Data_Ictio!W36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="14">
+        <f>(Data_Ictio!X36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="14">
+        <f>(Data_Ictio!Y36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="14">
+        <f>(Data_Ictio!Z36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="14">
+        <f>(Data_Ictio!AA36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="14">
+        <f>(Data_Ictio!AB36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="14">
+        <f>(Data_Ictio!AC36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="14">
+        <f>(Data_Ictio!AD36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="14">
+        <f>(Data_Ictio!AE36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14">
+        <f>(Data_Ictio!AF36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="14">
+        <f>(Data_Ictio!AG36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="14">
+        <f>(Data_Ictio!AH36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="14">
+        <f>(Data_Ictio!AI36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="14">
+        <f>(Data_Ictio!AJ36/Hoja2!$C36)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="14"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="13">
+        <v>6.5006711942711934</v>
+      </c>
+      <c r="D37" s="14">
+        <f>(Data_Ictio!C37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <f>(Data_Ictio!D37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <f>(Data_Ictio!E37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <f>(Data_Ictio!F37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f>(Data_Ictio!G37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <f>(Data_Ictio!H37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <f>(Data_Ictio!I37/Hoja2!$C37)*1000</f>
+        <v>1845.9632307776412</v>
+      </c>
+      <c r="K37" s="14">
+        <f>(Data_Ictio!J37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="14">
+        <f>(Data_Ictio!K37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="14">
+        <f>(Data_Ictio!L37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="14">
+        <f>(Data_Ictio!M37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="14">
+        <f>(Data_Ictio!N37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="14">
+        <f>(Data_Ictio!O37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="14">
+        <f>(Data_Ictio!P37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="14">
+        <f>(Data_Ictio!Q37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="14">
+        <f>(Data_Ictio!R37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="14">
+        <f>(Data_Ictio!S37/Hoja2!$C37)*1000</f>
+        <v>307.66053846294022</v>
+      </c>
+      <c r="U37" s="14">
+        <f>(Data_Ictio!T37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="14">
+        <f>(Data_Ictio!U37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14">
+        <f>(Data_Ictio!V37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="14">
+        <f>(Data_Ictio!W37/Hoja2!$C37)*1000</f>
+        <v>922.98161538882061</v>
+      </c>
+      <c r="Y37" s="14">
+        <f>(Data_Ictio!X37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="14">
+        <f>(Data_Ictio!Y37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="14">
+        <f>(Data_Ictio!Z37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="14">
+        <f>(Data_Ictio!AA37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
+        <f>(Data_Ictio!AB37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="14">
+        <f>(Data_Ictio!AC37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="14">
+        <f>(Data_Ictio!AD37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="14">
+        <f>(Data_Ictio!AE37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="14">
+        <f>(Data_Ictio!AF37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14">
+        <f>(Data_Ictio!AG37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="14">
+        <f>(Data_Ictio!AH37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="14">
+        <f>(Data_Ictio!AI37/Hoja2!$C37)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="14">
+        <f>(Data_Ictio!AJ37/Hoja2!$C37)*1000</f>
+        <v>307.66053846294022</v>
+      </c>
+      <c r="AL37" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
+++ b/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Expedición Pacífico\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0F3670-92A9-48F6-9A9A-8CAFC69A91D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE1DE48-A776-491F-BCA1-7FBECEE8BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_Total" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
-    <sheet name="individualCount" sheetId="5" r:id="rId4"/>
-    <sheet name="organismQuantity" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="7" r:id="rId4"/>
+    <sheet name="individualCount" sheetId="5" r:id="rId5"/>
+    <sheet name="organismQuantity" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja2!$F$1:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja4!$I$1:$N$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="214">
   <si>
     <t>Especie</t>
   </si>
@@ -612,12 +614,84 @@
   <si>
     <t>Volumen</t>
   </si>
+  <si>
+    <t>Achiridae</t>
+  </si>
+  <si>
+    <t>Carangidae</t>
+  </si>
+  <si>
+    <t>Engraulidae</t>
+  </si>
+  <si>
+    <t>Gerreidae</t>
+  </si>
+  <si>
+    <t>Gobiesocidae</t>
+  </si>
+  <si>
+    <t>Gobiidae</t>
+  </si>
+  <si>
+    <t>Haemulidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyphosidae </t>
+  </si>
+  <si>
+    <t>Paralichthyidae</t>
+  </si>
+  <si>
+    <t>Sciaenidae</t>
+  </si>
+  <si>
+    <t>Scombridae</t>
+  </si>
+  <si>
+    <t>Serranidae</t>
+  </si>
+  <si>
+    <t>Tetraodontidae</t>
+  </si>
+  <si>
+    <t>Taxón</t>
+  </si>
+  <si>
+    <t>Sitios</t>
+  </si>
+  <si>
+    <t>Amarales</t>
+  </si>
+  <si>
+    <t>Guascama</t>
+  </si>
+  <si>
+    <t>Sanquianga</t>
+  </si>
+  <si>
+    <t>Estacion</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>acion</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +719,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -660,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -683,11 +764,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -707,6 +806,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0168CD7B-7657-4DD9-B908-67C5D979FDF9}">
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK37"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,6 +1401,10 @@
       <c r="AJ2">
         <v>1</v>
       </c>
+      <c r="AK2">
+        <f>SUM(C2:AJ2)</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1397,6 +1515,10 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK38" si="0">SUM(C3:AJ3)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1507,6 +1629,10 @@
       <c r="AJ4">
         <v>14</v>
       </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1617,6 +1743,10 @@
       <c r="AJ5">
         <v>2</v>
       </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1727,6 +1857,10 @@
       <c r="AJ6">
         <v>7</v>
       </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1837,6 +1971,10 @@
       <c r="AJ7">
         <v>10</v>
       </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1947,6 +2085,10 @@
       <c r="AJ8">
         <v>22</v>
       </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2057,6 +2199,10 @@
       <c r="AJ9">
         <v>8</v>
       </c>
+      <c r="AK9">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2167,6 +2313,10 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2277,6 +2427,10 @@
       <c r="AJ11">
         <v>8</v>
       </c>
+      <c r="AK11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2387,6 +2541,10 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2497,6 +2655,10 @@
       <c r="AJ13">
         <v>0</v>
       </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2607,6 +2769,10 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2717,6 +2883,10 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2827,8 +2997,12 @@
       <c r="AJ16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK16">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -2937,8 +3111,12 @@
       <c r="AJ17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK17">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -3047,8 +3225,12 @@
       <c r="AJ18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -3157,8 +3339,12 @@
       <c r="AJ19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>106</v>
       </c>
@@ -3267,8 +3453,12 @@
       <c r="AJ20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>107</v>
       </c>
@@ -3377,8 +3567,12 @@
       <c r="AJ21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
@@ -3487,8 +3681,12 @@
       <c r="AJ22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>109</v>
       </c>
@@ -3597,8 +3795,12 @@
       <c r="AJ23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK23">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -3707,8 +3909,12 @@
       <c r="AJ24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK24">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -3817,8 +4023,12 @@
       <c r="AJ25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>114</v>
       </c>
@@ -3927,8 +4137,12 @@
       <c r="AJ26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK26">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
@@ -4037,8 +4251,12 @@
       <c r="AJ27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK27">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -4147,8 +4365,12 @@
       <c r="AJ28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK28">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -4257,8 +4479,12 @@
       <c r="AJ29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK29">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
@@ -4367,8 +4593,12 @@
       <c r="AJ30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>125</v>
       </c>
@@ -4477,8 +4707,12 @@
       <c r="AJ31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK31">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -4587,8 +4821,12 @@
       <c r="AJ32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -4697,8 +4935,12 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK33">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
@@ -4807,8 +5049,12 @@
       <c r="AJ34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -4917,8 +5163,12 @@
       <c r="AJ35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK35">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -5027,8 +5277,12 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -5136,6 +5390,152 @@
       </c>
       <c r="AJ37">
         <v>2</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" ref="C38:AJ38" si="1">SUM(C2:C37)</f>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>1329</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="0"/>
+        <v>2132</v>
       </c>
     </row>
   </sheetData>
@@ -7824,6 +8224,5638 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E4362-CD57-47D5-AD0C-E93C4DBAB5BB}">
+  <dimension ref="A1:AR49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" t="s">
+        <v>163</v>
+      </c>
+      <c r="T1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>112</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>52</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>155</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>27</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>66</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>26</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>7</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>156</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>16</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1329</v>
+      </c>
+      <c r="C12">
+        <v>883</v>
+      </c>
+      <c r="D12">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>52</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>6</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>12</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>22</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>27</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>66</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>26</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>13</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>12</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>32</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>185</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>6</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>4</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>123</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>5</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>66</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>2</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>156</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>6</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>4</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>18</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>15</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>6</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>87</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>66</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>6</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:AR38" si="0">SUBTOTAL(9,K2:K37)</f>
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1329</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f>SUBTOTAL(9,K6:K29)</f>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:AR39" si="1">SUBTOTAL(9,L6:L29)</f>
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>1132</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40">
+        <f>SUBTOTAL(9,K2:K39)</f>
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:AR40" si="2">SUBTOTAL(9,L2:L39)</f>
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>1329</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>1329</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>185</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>16</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>8</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>22</v>
+      </c>
+      <c r="Y42">
+        <v>16</v>
+      </c>
+      <c r="Z42">
+        <v>87</v>
+      </c>
+      <c r="AA42">
+        <v>18</v>
+      </c>
+      <c r="AB42">
+        <v>2</v>
+      </c>
+      <c r="AC42">
+        <v>10</v>
+      </c>
+      <c r="AD42">
+        <v>7</v>
+      </c>
+      <c r="AE42">
+        <v>18</v>
+      </c>
+      <c r="AF42">
+        <v>44</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>4</v>
+      </c>
+      <c r="AI42">
+        <v>3</v>
+      </c>
+      <c r="AJ42">
+        <v>6</v>
+      </c>
+      <c r="AK42">
+        <v>2</v>
+      </c>
+      <c r="AL42">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>883</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>8</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>34</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>35</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>16</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>12</v>
+      </c>
+      <c r="X43">
+        <v>12</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>43</v>
+      </c>
+      <c r="AA43">
+        <v>18</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>6</v>
+      </c>
+      <c r="AD43">
+        <v>2</v>
+      </c>
+      <c r="AE43">
+        <v>9</v>
+      </c>
+      <c r="AF43">
+        <v>20</v>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>4</v>
+      </c>
+      <c r="AI43">
+        <v>2</v>
+      </c>
+      <c r="AJ43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>254</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>138</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <v>40</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>6</v>
+      </c>
+      <c r="AF44">
+        <v>7</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>185</v>
+      </c>
+      <c r="C49">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:J39" xr:uid="{EF5E4362-CD57-47D5-AD0C-E93C4DBAB5BB}"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFBAA8D-A117-4009-9F5D-990A10703D50}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
@@ -11926,7 +17958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D537321A-4904-4F8F-B4C5-C06EAB7D4B49}">
   <dimension ref="A1:AL37"/>
   <sheetViews>

--- a/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
+++ b/03_An_Expl_DatosBiologicos/Biologicos/DatosP_Ictioplancton/Data_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Expedición Pacífico\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\03_An_Expl_DatosBiologicos\Biologicos\DatosP_Ictioplancton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE1DE48-A776-491F-BCA1-7FBECEE8BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A25D702-C412-4ADC-811B-214AABE6CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{308B7EEA-06C4-4925-9DFA-046A32C31AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz_Total" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja2!$F$1:$J$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja4!$I$1:$N$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matriz_Total!$A$1:$AM$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="214">
   <si>
     <t>Especie</t>
   </si>
@@ -806,19 +807,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,176 +1136,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0168CD7B-7657-4DD9-B908-67C5D979FDF9}">
-  <dimension ref="A1:AK38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AJ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="4"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="AM1" s="4"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -1318,26 +1319,26 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>112</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>1</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1372,23 +1373,23 @@
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>2</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>2</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
         <v>0</v>
       </c>
@@ -1399,26 +1400,32 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <f>SUM(C2:AJ2)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <f>SUM(E2:AL2)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -1432,23 +1439,23 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -1459,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1516,28 +1523,34 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK38" si="0">SUM(C3:AJ3)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ref="AM3:AM38" si="0">SUM(E3:AL3)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1546,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1591,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1609,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1627,47 +1640,53 @@
         <v>0</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
         <v>14</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>18</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1678,28 +1697,28 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1723,14 +1742,14 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
@@ -1741,26 +1760,32 @@
         <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>2</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -1768,32 +1793,32 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>52</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -1810,25 +1835,25 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>6</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1837,44 +1862,50 @@
         <v>0</v>
       </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>4</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <v>2</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>7</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -1888,19 +1919,19 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>155</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1927,38 +1958,38 @@
         <v>0</v>
       </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>27</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
         <v>2</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
         <v>0</v>
       </c>
@@ -1969,26 +2000,32 @@
         <v>0</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>10</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -1999,35 +2036,35 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>66</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>26</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>13</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -2047,32 +2084,32 @@
         <v>0</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>12</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>7</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
@@ -2083,31 +2120,37 @@
         <v>0</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
         <v>22</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2116,25 +2159,25 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>156</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>4</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2146,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2161,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>2</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2179,14 +2222,14 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
         <v>4</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
         <v>0</v>
       </c>
@@ -2197,70 +2240,76 @@
         <v>0</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>8</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>24</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2269,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2299,67 +2348,73 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>29</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2368,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2389,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>2</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>2</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2419,55 +2474,61 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>8</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>18</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2515,14 +2576,14 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
         <v>2</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -2533,32 +2594,38 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
@@ -2584,14 +2651,14 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>13</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -2617,14 +2684,14 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>4</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
         <v>0</v>
       </c>
@@ -2632,17 +2699,17 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
         <v>2</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
         <v>0</v>
       </c>
@@ -2656,44 +2723,50 @@
         <v>0</v>
       </c>
       <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>15</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
@@ -2704,28 +2777,28 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2770,23 +2843,29 @@
         <v>0</v>
       </c>
       <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
@@ -2794,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>5</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>52</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2836,14 +2915,14 @@
         <v>0</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>6</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
       <c r="X15">
         <v>0</v>
       </c>
@@ -2863,14 +2942,14 @@
         <v>0</v>
       </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>12</v>
       </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
         <v>0</v>
       </c>
@@ -2884,49 +2963,55 @@
         <v>0</v>
       </c>
       <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>22</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2953,20 +3038,20 @@
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>5</v>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
         <v>27</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
       <c r="AA16">
         <v>0</v>
       </c>
@@ -2977,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2998,23 +3083,29 @@
         <v>0</v>
       </c>
       <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17">
         <v>0</v>
       </c>
@@ -3025,35 +3116,35 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>66</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>26</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>13</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
         <v>0</v>
       </c>
@@ -3073,14 +3164,14 @@
         <v>0</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>12</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
       <c r="AA17">
         <v>0</v>
       </c>
@@ -3112,44 +3203,50 @@
         <v>0</v>
       </c>
       <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>32</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
         <v>0</v>
       </c>
@@ -3178,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3205,14 +3302,14 @@
         <v>0</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>2</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
         <v>0</v>
       </c>
@@ -3223,26 +3320,32 @@
         <v>0</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>4</v>
       </c>
-      <c r="AK18">
+      <c r="AM18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
@@ -3256,14 +3359,14 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>15</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -3286,26 +3389,26 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>2</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>6</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
         <v>0</v>
       </c>
@@ -3319,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -3340,24 +3443,30 @@
         <v>0</v>
       </c>
       <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20">
@@ -3366,17 +3475,17 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -3424,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="6">
         <v>0</v>
@@ -3436,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF20" s="6">
         <v>0</v>
@@ -3451,26 +3560,32 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21">
         <v>0</v>
       </c>
@@ -3484,14 +3599,14 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -3511,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3568,25 +3683,31 @@
         <v>0</v>
       </c>
       <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3595,17 +3716,17 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -3658,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -3679,26 +3800,32 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>14</v>
       </c>
-      <c r="AK22">
+      <c r="AM22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
         <v>0</v>
       </c>
@@ -3712,14 +3839,14 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>0</v>
       </c>
@@ -3742,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3772,14 +3899,14 @@
         <v>0</v>
       </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>3</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
       <c r="AF23">
         <v>0</v>
       </c>
@@ -3793,52 +3920,58 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
         <v>2</v>
       </c>
-      <c r="AK23">
+      <c r="AM23">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>5</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3862,74 +3995,80 @@
         <v>0</v>
       </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>6</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>4</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>2</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
       <c r="AI24">
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
         <v>20</v>
       </c>
-      <c r="AK24">
+      <c r="AM24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -3940,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>123</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3979,29 +4118,29 @@
         <v>0</v>
       </c>
       <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>5</v>
       </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>5</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>2</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
         <v>0</v>
       </c>
@@ -4015,34 +4154,40 @@
         <v>0</v>
       </c>
       <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
         <v>2</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>10</v>
       </c>
-      <c r="AK25">
+      <c r="AM25">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4051,17 +4196,17 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>66</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
@@ -4108,23 +4253,23 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>2</v>
       </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
         <v>0</v>
       </c>
@@ -4135,31 +4280,37 @@
         <v>0</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
         <v>29</v>
       </c>
-      <c r="AK26">
+      <c r="AM26">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4168,20 +4319,20 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>156</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>0</v>
       </c>
@@ -4192,14 +4343,14 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>6</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>0</v>
       </c>
@@ -4216,26 +4367,26 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>4</v>
       </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
       <c r="AF27">
         <v>0</v>
       </c>
@@ -4243,53 +4394,59 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
       <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
         <v>2</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>24</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
@@ -4306,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -4321,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -4348,41 +4505,47 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
@@ -4396,14 +4559,14 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>29</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
         <v>0</v>
       </c>
@@ -4420,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -4444,22 +4607,22 @@
         <v>0</v>
       </c>
       <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <v>2</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
         <v>1</v>
@@ -4468,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -4477,26 +4640,32 @@
         <v>0</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
         <v>8</v>
       </c>
-      <c r="AK29">
+      <c r="AM29">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
         <v>0</v>
       </c>
@@ -4510,16 +4679,16 @@
         <v>0</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>18</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -4567,14 +4736,14 @@
         <v>0</v>
       </c>
       <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>3</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
       <c r="AE30">
         <v>0</v>
       </c>
@@ -4582,35 +4751,41 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30">
         <v>0</v>
       </c>
       <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
       <c r="E31">
         <v>0</v>
       </c>
@@ -4684,14 +4859,14 @@
         <v>0</v>
       </c>
       <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>2</v>
       </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
         <v>0</v>
       </c>
@@ -4705,26 +4880,32 @@
         <v>0</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
         <v>15</v>
       </c>
-      <c r="AK31">
+      <c r="AM31">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
@@ -4738,14 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>15</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
       <c r="L32">
         <v>0</v>
       </c>
@@ -4768,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4822,23 +5003,29 @@
         <v>0</v>
       </c>
       <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
         <v>0</v>
       </c>
@@ -4846,25 +5033,25 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>5</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>12</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4888,14 +5075,14 @@
         <v>0</v>
       </c>
       <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>6</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
       <c r="X33">
         <v>0</v>
       </c>
@@ -4903,14 +5090,14 @@
         <v>0</v>
       </c>
       <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>2</v>
       </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
         <v>0</v>
       </c>
@@ -4936,23 +5123,29 @@
         <v>0</v>
       </c>
       <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
         <v>0</v>
       </c>
@@ -4966,19 +5159,19 @@
         <v>0</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>43</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5005,16 +5198,16 @@
         <v>0</v>
       </c>
       <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>5</v>
       </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -5041,32 +5234,38 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <v>0</v>
       </c>
       <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
         <v>2</v>
       </c>
-      <c r="AK34">
+      <c r="AM34">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
         <v>0</v>
       </c>
@@ -5077,17 +5276,17 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>66</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
@@ -5155,32 +5354,38 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>0</v>
       </c>
       <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
         <v>3</v>
       </c>
-      <c r="AK35">
+      <c r="AM35">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
@@ -5194,14 +5399,14 @@
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>3</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
@@ -5230,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -5278,23 +5483,29 @@
         <v>0</v>
       </c>
       <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
       <c r="E37">
         <v>0</v>
       </c>
@@ -5308,14 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>12</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -5338,26 +5549,26 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>2</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>6</v>
       </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
       <c r="Z37">
         <v>0</v>
       </c>
@@ -5389,156 +5600,163 @@
         <v>0</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
         <v>2</v>
       </c>
-      <c r="AK37">
+      <c r="AM37">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <f t="shared" ref="C38:AJ38" si="1">SUM(C2:C37)</f>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" ref="E38:AL38" si="1">SUM(E2:E37)</f>
         <v>6</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>1329</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="V38">
+      <c r="X38">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AD38">
+      <c r="AF38">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AE38">
+      <c r="AG38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF38">
+      <c r="AH38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG38">
+      <c r="AI38">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AH38">
+      <c r="AJ38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI38">
+      <c r="AK38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ38">
+      <c r="AL38">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
         <f t="shared" si="0"/>
         <v>2132</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM38" xr:uid="{0168CD7B-7657-4DD9-B908-67C5D979FDF9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8227,7 +8445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5E4362-CD57-47D5-AD0C-E93C4DBAB5BB}">
   <dimension ref="A1:AR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D49"/>
     </sheetView>
   </sheetViews>
@@ -8237,14 +8455,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="F1" t="s">
         <v>209</v>
       </c>
@@ -8364,14 +8582,14 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>207</v>
       </c>
       <c r="F2" t="s">
@@ -8496,9 +8714,9 @@
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="F3" t="s">
         <v>212</v>
       </c>
